--- a/Scripts/Rapport/input/Zenderdatabank.xlsx
+++ b/Scripts/Rapport/input/Zenderdatabank.xlsx
@@ -380,10 +380,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -537,12 +538,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -3024,7 +3025,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3357,5 +3358,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Scripts/Rapport/input/Zenderdatabank.xlsx
+++ b/Scripts/Rapport/input/Zenderdatabank.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="48" windowWidth="20100" windowHeight="9792" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="48" windowWidth="20100" windowHeight="9792"/>
   </bookViews>
   <sheets>
     <sheet name="Vangstgegevens" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="119">
   <si>
     <t>PIT</t>
   </si>
@@ -384,7 +384,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -543,7 +543,7 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -848,25 +848,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="13" width="8.88671875" style="15"/>
-    <col min="14" max="14" width="14.21875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="13" width="6.5546875" style="15" customWidth="1"/>
+    <col min="14" max="14" width="14.77734375" style="15" customWidth="1"/>
+    <col min="15" max="19" width="4.77734375" customWidth="1"/>
     <col min="20" max="20" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" customWidth="1"/>
+    <col min="21" max="21" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -1017,7 +1018,7 @@
         <v>4.6032419999999998</v>
       </c>
       <c r="I3" s="7">
-        <v>42994</v>
+        <v>42987</v>
       </c>
       <c r="J3" s="16">
         <v>2.0833333333333332E-2</v>
@@ -1053,52 +1054,48 @@
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="4">
-        <v>151040</v>
+        <v>151060</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>95</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="G4" s="37">
-        <v>51.003526999999998</v>
+        <v>51.001710000000003</v>
       </c>
       <c r="H4" s="37">
-        <v>4.5434299999999999</v>
+        <v>4.55823</v>
       </c>
       <c r="I4" s="7">
-        <v>43007</v>
+        <v>43356</v>
       </c>
       <c r="J4" s="16">
-        <v>0.95138888888888884</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="K4" s="17">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16" t="s">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="L4" s="16">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="O4" s="26">
-        <v>17.7</v>
-      </c>
-      <c r="P4" s="26">
-        <v>31.5</v>
-      </c>
-      <c r="Q4" s="26">
-        <v>13</v>
-      </c>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
       <c r="R4" s="24"/>
       <c r="S4" s="4"/>
       <c r="T4" s="7">
-        <v>43313</v>
+        <v>43664</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -1108,48 +1105,52 @@
       <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="4">
-        <v>151060</v>
+        <v>151040</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>95</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="G5" s="37">
-        <v>51.001710000000003</v>
+        <v>51.003526999999998</v>
       </c>
       <c r="H5" s="37">
-        <v>4.55823</v>
+        <v>4.5434299999999999</v>
       </c>
       <c r="I5" s="7">
-        <v>43366</v>
+        <v>43007</v>
       </c>
       <c r="J5" s="16">
-        <v>0.22222222222222221</v>
+        <v>0.95138888888888884</v>
       </c>
       <c r="K5" s="17">
-        <v>0.30208333333333331</v>
-      </c>
-      <c r="L5" s="16">
-        <v>0.31597222222222221</v>
-      </c>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19" t="s">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
+      <c r="O5" s="26">
+        <v>17.7</v>
+      </c>
+      <c r="P5" s="26">
+        <v>31.5</v>
+      </c>
+      <c r="Q5" s="26">
+        <v>13</v>
+      </c>
       <c r="R5" s="24"/>
       <c r="S5" s="4"/>
       <c r="T5" s="7">
-        <v>43664</v>
+        <v>43313</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -2045,7 +2046,9 @@
       <c r="D21" s="4">
         <v>151321</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F21" s="2" t="s">
         <v>26</v>
       </c>
@@ -2097,7 +2100,9 @@
       <c r="D22" s="4">
         <v>151440</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F22" s="2" t="s">
         <v>111</v>
       </c>
@@ -2149,7 +2154,9 @@
       <c r="D23" s="4">
         <v>151400</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F23" s="2" t="s">
         <v>111</v>
       </c>
@@ -2262,7 +2269,9 @@
       <c r="D25" s="4">
         <v>151481</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F25" s="2" t="s">
         <v>111</v>
       </c>
@@ -2323,7 +2332,9 @@
       <c r="D26" s="4">
         <v>151380</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F26" s="4" t="s">
         <v>110</v>
       </c>
@@ -3024,7 +3035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>

--- a/Scripts/Rapport/input/Zenderdatabank.xlsx
+++ b/Scripts/Rapport/input/Zenderdatabank.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="48" windowWidth="20100" windowHeight="9792"/>
+    <workbookView xWindow="0" yWindow="48" windowWidth="20100" windowHeight="9792" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Vangstgegevens" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="123">
   <si>
     <t>PIT</t>
   </si>
@@ -374,6 +374,18 @@
   </si>
   <si>
     <t>Burcht</t>
+  </si>
+  <si>
+    <t>Meander</t>
+  </si>
+  <si>
+    <t>Locatie</t>
+  </si>
+  <si>
+    <t>Vijver</t>
+  </si>
+  <si>
+    <t>Dijk</t>
   </si>
 </sst>
 </file>
@@ -386,7 +398,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,12 +448,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF777777"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -464,7 +470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -513,9 +519,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -848,7 +851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -952,10 +955,10 @@
       <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="37">
+      <c r="G2" s="36">
         <v>51.015430000000002</v>
       </c>
-      <c r="H2" s="37">
+      <c r="H2" s="36">
         <v>4.5083339999999996</v>
       </c>
       <c r="I2" s="5">
@@ -976,16 +979,16 @@
       <c r="N2" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="25">
         <v>17.600000000000001</v>
       </c>
-      <c r="P2" s="26">
+      <c r="P2" s="25">
         <v>26.4</v>
       </c>
-      <c r="Q2" s="26">
+      <c r="Q2" s="25">
         <v>11.5</v>
       </c>
-      <c r="R2" s="24">
+      <c r="R2" s="23">
         <v>90</v>
       </c>
       <c r="S2" s="4" t="s">
@@ -1011,10 +1014,10 @@
       <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="36">
         <v>50.991809000000003</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="36">
         <v>4.6032419999999998</v>
       </c>
       <c r="I3" s="7">
@@ -1035,10 +1038,10 @@
       <c r="N3" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="24"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="23"/>
       <c r="S3" s="4"/>
       <c r="T3" s="5">
         <v>43098</v>
@@ -1064,10 +1067,10 @@
       <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="36">
         <v>51.001710000000003</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="36">
         <v>4.55823</v>
       </c>
       <c r="I4" s="7">
@@ -1086,10 +1089,10 @@
       <c r="N4" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="24"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="23"/>
       <c r="S4" s="4"/>
       <c r="T4" s="7">
         <v>43664</v>
@@ -1115,10 +1118,10 @@
       <c r="F5" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="36">
         <v>51.003526999999998</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="36">
         <v>4.5434299999999999</v>
       </c>
       <c r="I5" s="7">
@@ -1135,16 +1138,16 @@
       <c r="N5" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="25">
         <v>17.7</v>
       </c>
-      <c r="P5" s="26">
+      <c r="P5" s="25">
         <v>31.5</v>
       </c>
-      <c r="Q5" s="26">
+      <c r="Q5" s="25">
         <v>13</v>
       </c>
-      <c r="R5" s="24"/>
+      <c r="R5" s="23"/>
       <c r="S5" s="4"/>
       <c r="T5" s="7">
         <v>43313</v>
@@ -1170,10 +1173,10 @@
       <c r="F6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="36">
         <v>50.990796000000003</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="36">
         <v>4.6339670000000002</v>
       </c>
       <c r="I6" s="5">
@@ -1194,16 +1197,16 @@
       <c r="N6" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="O6" s="26">
+      <c r="O6" s="25">
         <v>15</v>
       </c>
-      <c r="P6" s="26">
+      <c r="P6" s="25">
         <v>31.5</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="25">
         <v>13</v>
       </c>
-      <c r="R6" s="24">
+      <c r="R6" s="23">
         <v>72</v>
       </c>
       <c r="S6" s="4"/>
@@ -1231,10 +1234,10 @@
       <c r="F7" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="36">
         <v>50.991809000000003</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="36">
         <v>4.6032419999999998</v>
       </c>
       <c r="I7" s="7">
@@ -1255,16 +1258,16 @@
       <c r="N7" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O7" s="25">
         <v>25.4</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="25">
         <v>29</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="25">
         <v>14</v>
       </c>
-      <c r="R7" s="24">
+      <c r="R7" s="23">
         <v>82</v>
       </c>
       <c r="S7" s="4"/>
@@ -1292,8 +1295,8 @@
       <c r="F8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="7">
         <v>43382</v>
       </c>
@@ -1303,10 +1306,10 @@
       <c r="N8" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="24"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="23"/>
       <c r="S8" s="4"/>
       <c r="T8" s="7"/>
       <c r="U8" s="2"/>
@@ -1328,10 +1331,10 @@
       <c r="F9" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="36">
         <v>50.991809000000003</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="36">
         <v>4.6032419999999998</v>
       </c>
       <c r="I9" s="7">
@@ -1352,16 +1355,16 @@
       <c r="N9" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="O9" s="26">
+      <c r="O9" s="25">
         <v>14.9</v>
       </c>
-      <c r="P9" s="26">
+      <c r="P9" s="25">
         <v>28</v>
       </c>
-      <c r="Q9" s="26">
+      <c r="Q9" s="25">
         <v>12</v>
       </c>
-      <c r="R9" s="24">
+      <c r="R9" s="23">
         <v>70</v>
       </c>
       <c r="S9" s="4" t="s">
@@ -1391,10 +1394,10 @@
       <c r="F10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="36">
         <v>51.015430000000002</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="36">
         <v>4.5083339999999996</v>
       </c>
       <c r="I10" s="7">
@@ -1415,16 +1418,16 @@
       <c r="N10" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="O10" s="26">
+      <c r="O10" s="25">
         <v>13</v>
       </c>
-      <c r="P10" s="26">
+      <c r="P10" s="25">
         <v>27.5</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="Q10" s="25">
         <v>10</v>
       </c>
-      <c r="R10" s="24">
+      <c r="R10" s="23">
         <v>67</v>
       </c>
       <c r="S10" s="4"/>
@@ -1452,10 +1455,10 @@
       <c r="F11" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="36">
         <v>50.985909999999997</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="36">
         <v>4.6703799999999998</v>
       </c>
       <c r="I11" s="7">
@@ -1476,16 +1479,16 @@
       <c r="N11" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="O11" s="27">
+      <c r="O11" s="26">
         <v>17</v>
       </c>
-      <c r="P11" s="27">
+      <c r="P11" s="26">
         <v>30</v>
       </c>
-      <c r="Q11" s="27">
+      <c r="Q11" s="26">
         <v>13</v>
       </c>
-      <c r="R11" s="25">
+      <c r="R11" s="24">
         <v>72</v>
       </c>
       <c r="S11" s="4"/>
@@ -1495,7 +1498,7 @@
       <c r="U11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="V11" s="36"/>
+      <c r="V11" s="35"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -1514,10 +1517,10 @@
       <c r="F12" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="36">
         <v>51.003149999999998</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="36">
         <v>4.5482610000000001</v>
       </c>
       <c r="I12" s="7">
@@ -1538,16 +1541,16 @@
       <c r="N12" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="O12" s="26">
+      <c r="O12" s="25">
         <v>22</v>
       </c>
-      <c r="P12" s="26">
+      <c r="P12" s="25">
         <v>28</v>
       </c>
-      <c r="Q12" s="26">
+      <c r="Q12" s="25">
         <v>13</v>
       </c>
-      <c r="R12" s="24">
+      <c r="R12" s="23">
         <v>82</v>
       </c>
       <c r="S12" s="4"/>
@@ -1575,10 +1578,10 @@
       <c r="F13" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="36">
         <v>50.985909999999997</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="36">
         <v>4.6703799999999998</v>
       </c>
       <c r="I13" s="7">
@@ -1599,16 +1602,16 @@
       <c r="N13" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="O13" s="27">
+      <c r="O13" s="26">
         <v>22</v>
       </c>
-      <c r="P13" s="27">
+      <c r="P13" s="26">
         <v>28.5</v>
       </c>
-      <c r="Q13" s="27">
+      <c r="Q13" s="26">
         <v>14.5</v>
       </c>
-      <c r="R13" s="25">
+      <c r="R13" s="24">
         <v>78</v>
       </c>
       <c r="S13" s="4"/>
@@ -1636,10 +1639,10 @@
       <c r="F14" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="36">
         <v>50.985909999999997</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="36">
         <v>4.6703799999999998</v>
       </c>
       <c r="I14" s="10">
@@ -1660,16 +1663,16 @@
       <c r="N14" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="O14" s="27">
+      <c r="O14" s="26">
         <v>16</v>
       </c>
-      <c r="P14" s="27">
+      <c r="P14" s="26">
         <v>28</v>
       </c>
-      <c r="Q14" s="27">
+      <c r="Q14" s="26">
         <v>12.5</v>
       </c>
-      <c r="R14" s="25">
+      <c r="R14" s="24">
         <v>76</v>
       </c>
       <c r="S14" s="9" t="s">
@@ -1694,10 +1697,10 @@
       <c r="F15" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="36">
         <v>50.974559999999997</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="36">
         <v>4.7487199999999996</v>
       </c>
       <c r="I15" s="7">
@@ -1718,16 +1721,16 @@
       <c r="N15" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="O15" s="26">
+      <c r="O15" s="25">
         <v>18.5</v>
       </c>
-      <c r="P15" s="26">
+      <c r="P15" s="25">
         <v>28</v>
       </c>
-      <c r="Q15" s="26">
+      <c r="Q15" s="25">
         <v>14</v>
       </c>
-      <c r="R15" s="24">
+      <c r="R15" s="23">
         <v>77</v>
       </c>
       <c r="S15" s="4" t="s">
@@ -1759,10 +1762,10 @@
       <c r="F16" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="36">
         <v>50.974559999999997</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="36">
         <v>4.7487199999999996</v>
       </c>
       <c r="I16" s="10">
@@ -1783,10 +1786,10 @@
       <c r="N16" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="25"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="24"/>
       <c r="S16" s="9"/>
       <c r="T16" s="10"/>
       <c r="U16" s="8"/>
@@ -1810,10 +1813,10 @@
       <c r="F17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="36">
         <v>50.982939999999999</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="36">
         <v>4.6760799999999998</v>
       </c>
       <c r="I17" s="10">
@@ -1834,16 +1837,16 @@
       <c r="N17" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="O17" s="27">
+      <c r="O17" s="26">
         <v>15.5</v>
       </c>
-      <c r="P17" s="27">
+      <c r="P17" s="26">
         <v>25</v>
       </c>
-      <c r="Q17" s="27">
+      <c r="Q17" s="26">
         <v>10.8</v>
       </c>
-      <c r="R17" s="25">
+      <c r="R17" s="24">
         <v>66</v>
       </c>
       <c r="S17" s="9"/>
@@ -1873,10 +1876,10 @@
       <c r="F18" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="36">
         <v>50.974559999999997</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="36">
         <v>4.7487199999999996</v>
       </c>
       <c r="I18" s="7">
@@ -1897,16 +1900,16 @@
       <c r="N18" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="O18" s="26">
+      <c r="O18" s="25">
         <v>19.5</v>
       </c>
-      <c r="P18" s="26">
+      <c r="P18" s="25">
         <v>31.5</v>
       </c>
-      <c r="Q18" s="26">
+      <c r="Q18" s="25">
         <v>15.5</v>
       </c>
-      <c r="R18" s="24">
+      <c r="R18" s="23">
         <v>79</v>
       </c>
       <c r="S18" s="4" t="s">
@@ -1936,10 +1939,10 @@
       <c r="F19" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="36">
         <v>50.998510000000003</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="36">
         <v>4.5982700000000003</v>
       </c>
       <c r="I19" s="10">
@@ -1958,16 +1961,16 @@
       <c r="N19" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="O19" s="27">
+      <c r="O19" s="26">
         <v>15.5</v>
       </c>
-      <c r="P19" s="27">
+      <c r="P19" s="26">
         <v>31</v>
       </c>
-      <c r="Q19" s="27">
+      <c r="Q19" s="26">
         <v>14.2</v>
       </c>
-      <c r="R19" s="25">
+      <c r="R19" s="24">
         <v>77</v>
       </c>
       <c r="S19" s="8" t="s">
@@ -1997,10 +2000,10 @@
       <c r="F20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="36">
         <v>50.990749999999998</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="36">
         <v>4.6031199999999997</v>
       </c>
       <c r="I20" s="10">
@@ -2021,12 +2024,12 @@
       <c r="N20" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="O20" s="27">
+      <c r="O20" s="26">
         <v>20.9</v>
       </c>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="25"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="24"/>
       <c r="S20" s="13"/>
       <c r="T20" s="12">
         <v>43741</v>
@@ -2052,10 +2055,10 @@
       <c r="F21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="36">
         <v>50.991860000000003</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="36">
         <v>4.6033499999999998</v>
       </c>
       <c r="I21" s="7">
@@ -2069,16 +2072,16 @@
       <c r="N21" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="O21" s="26">
+      <c r="O21" s="25">
         <v>15</v>
       </c>
-      <c r="P21" s="26">
+      <c r="P21" s="25">
         <v>31</v>
       </c>
-      <c r="Q21" s="26">
+      <c r="Q21" s="25">
         <v>13</v>
       </c>
-      <c r="R21" s="24">
+      <c r="R21" s="23">
         <v>105</v>
       </c>
       <c r="S21" s="2"/>
@@ -2106,10 +2109,10 @@
       <c r="F22" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="36">
         <v>50.973289999999999</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="36">
         <v>4.7468000000000004</v>
       </c>
       <c r="I22" s="7">
@@ -2123,16 +2126,16 @@
       <c r="N22" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="O22" s="26">
+      <c r="O22" s="25">
         <v>20.5</v>
       </c>
-      <c r="P22" s="26">
+      <c r="P22" s="25">
         <v>30</v>
       </c>
-      <c r="Q22" s="26">
+      <c r="Q22" s="25">
         <v>14</v>
       </c>
-      <c r="R22" s="24">
+      <c r="R22" s="23">
         <v>116</v>
       </c>
       <c r="S22" s="2"/>
@@ -2160,10 +2163,10 @@
       <c r="F23" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="36">
         <v>50.973289999999999</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="36">
         <v>4.7468000000000004</v>
       </c>
       <c r="I23" s="7">
@@ -2177,16 +2180,16 @@
       <c r="N23" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="O23" s="26">
+      <c r="O23" s="25">
         <v>16.5</v>
       </c>
-      <c r="P23" s="26">
+      <c r="P23" s="25">
         <v>26.8</v>
       </c>
-      <c r="Q23" s="26">
+      <c r="Q23" s="25">
         <v>13</v>
       </c>
-      <c r="R23" s="24">
+      <c r="R23" s="23">
         <v>105</v>
       </c>
       <c r="S23" s="2"/>
@@ -2214,10 +2217,10 @@
       <c r="F24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="36">
         <v>50.975099999999998</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="36">
         <v>4.6894799999999996</v>
       </c>
       <c r="I24" s="7">
@@ -2238,16 +2241,16 @@
       <c r="N24" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="O24" s="26">
+      <c r="O24" s="25">
         <v>16.600000000000001</v>
       </c>
-      <c r="P24" s="26">
+      <c r="P24" s="25">
         <v>27</v>
       </c>
-      <c r="Q24" s="26">
+      <c r="Q24" s="25">
         <v>10</v>
       </c>
-      <c r="R24" s="24">
+      <c r="R24" s="23">
         <v>97</v>
       </c>
       <c r="S24" s="2"/>
@@ -2275,10 +2278,10 @@
       <c r="F25" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="36">
         <v>50.973289999999999</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="36">
         <v>4.7468000000000004</v>
       </c>
       <c r="I25" s="7">
@@ -2299,16 +2302,16 @@
       <c r="N25" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="O25" s="26">
+      <c r="O25" s="25">
         <v>24.5</v>
       </c>
-      <c r="P25" s="26">
+      <c r="P25" s="25">
         <v>18.5</v>
       </c>
-      <c r="Q25" s="26">
+      <c r="Q25" s="25">
         <v>14</v>
       </c>
-      <c r="R25" s="24">
+      <c r="R25" s="23">
         <v>114.5</v>
       </c>
       <c r="S25" s="2"/>
@@ -2338,10 +2341,10 @@
       <c r="F26" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G26" s="36">
         <v>50.974559999999997</v>
       </c>
-      <c r="H26" s="37">
+      <c r="H26" s="36">
         <v>4.7487199999999996</v>
       </c>
       <c r="I26" s="7">
@@ -2355,16 +2358,16 @@
       <c r="N26" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="O26" s="26">
+      <c r="O26" s="25">
         <v>19.5</v>
       </c>
-      <c r="P26" s="26">
+      <c r="P26" s="25">
         <v>29.5</v>
       </c>
-      <c r="Q26" s="26">
+      <c r="Q26" s="25">
         <v>13.5</v>
       </c>
-      <c r="R26" s="24">
+      <c r="R26" s="23">
         <v>111</v>
       </c>
       <c r="S26" s="2"/>
@@ -2388,10 +2391,10 @@
       <c r="F27" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G27" s="36">
         <v>50.974559999999997</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="36">
         <v>4.7487199999999996</v>
       </c>
       <c r="I27" s="7">
@@ -2412,16 +2415,16 @@
       <c r="N27" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="O27" s="26">
+      <c r="O27" s="25">
         <v>13.8</v>
       </c>
-      <c r="P27" s="26">
+      <c r="P27" s="25">
         <v>28</v>
       </c>
-      <c r="Q27" s="26">
+      <c r="Q27" s="25">
         <v>11.5</v>
       </c>
-      <c r="R27" s="24">
+      <c r="R27" s="23">
         <v>101</v>
       </c>
       <c r="S27" s="2"/>
@@ -2447,10 +2450,10 @@
       <c r="F28" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G28" s="37">
+      <c r="G28" s="36">
         <v>50.988239999999998</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H28" s="36">
         <v>4.6564800000000002</v>
       </c>
       <c r="I28" s="7">
@@ -2471,16 +2474,16 @@
       <c r="N28" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="O28" s="26">
+      <c r="O28" s="25">
         <v>17.5</v>
       </c>
-      <c r="P28" s="26">
+      <c r="P28" s="25">
         <v>30</v>
       </c>
-      <c r="Q28" s="26">
+      <c r="Q28" s="25">
         <v>12.5</v>
       </c>
-      <c r="R28" s="24">
+      <c r="R28" s="23">
         <v>113</v>
       </c>
       <c r="S28" s="2"/>
@@ -2504,10 +2507,10 @@
       <c r="F29" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G29" s="36">
         <v>50.973289999999999</v>
       </c>
-      <c r="H29" s="37">
+      <c r="H29" s="36">
         <v>4.7468000000000004</v>
       </c>
       <c r="I29" s="7">
@@ -2526,21 +2529,21 @@
       <c r="N29" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="O29" s="26">
+      <c r="O29" s="25">
         <v>18.5</v>
       </c>
-      <c r="P29" s="26">
+      <c r="P29" s="25">
         <v>27</v>
       </c>
-      <c r="Q29" s="26">
+      <c r="Q29" s="25">
         <v>12.5</v>
       </c>
-      <c r="R29" s="24">
+      <c r="R29" s="23">
         <v>109</v>
       </c>
       <c r="S29" s="2"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G30" s="14"/>
@@ -2591,13 +2594,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>43267</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="37">
         <v>51.00291</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="37">
         <v>4.5426500000000001</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2614,13 +2617,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="23">
+      <c r="A3" s="22">
         <v>43251</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="37">
         <v>50.988370000000003</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="37">
         <v>4.6575300000000004</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -2634,19 +2637,19 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="31">
+      <c r="A4" s="30">
         <v>43314</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="37">
         <v>51.00291</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="37">
         <v>4.5426500000000001</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="32">
         <v>1</v>
       </c>
       <c r="F4" t="s">
@@ -2657,172 +2660,172 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="31">
+      <c r="A5" s="30">
         <v>43301</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="37">
         <v>51.00264</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="37">
         <v>4.54399</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="31">
+      <c r="A6" s="30">
         <v>43268</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="37">
         <v>51.00264</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="37">
         <v>4.54399</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="32">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="31">
+      <c r="A7" s="30">
         <v>43269</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="37">
         <v>51.00264</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="37">
         <v>4.54399</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="31">
+      <c r="A8" s="30">
         <v>43317</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="37">
         <v>51.00291</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="37">
         <v>4.5426500000000001</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="31">
+      <c r="A9" s="30">
         <v>43267</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="37">
         <v>51.00264</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="37">
         <v>4.54399</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="31">
+      <c r="A10" s="30">
         <v>43318</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="37">
         <v>51.00291</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="37">
         <v>4.5426500000000001</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="31">
+      <c r="A11" s="30">
         <v>43267</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="37">
         <v>51.00264</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="37">
         <v>4.54399</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="31">
+      <c r="A12" s="30">
         <v>43268</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="37">
         <v>51.00264</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="37">
         <v>4.54399</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="31">
+      <c r="A13" s="30">
         <v>43275</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="37">
         <v>51.00264</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="37">
         <v>4.54399</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="31">
+      <c r="A14" s="30">
         <v>43266</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="37">
         <v>51.00264</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="37">
         <v>4.54399</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="32">
         <v>1</v>
       </c>
     </row>
@@ -2836,8 +2839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2859,172 +2862,199 @@
       <c r="D1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="38">
         <v>50.985300000000002</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="38">
         <v>4.69238</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="37">
         <v>50.991100000000003</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="37">
         <v>4.6031899999999997</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="29"/>
+      <c r="E3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="37">
         <v>51.004399999999997</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="37">
         <v>4.5500499999999997</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="37">
         <v>50.991100000000003</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="37">
         <v>4.6031899999999997</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="37">
         <v>50.9925</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="37">
         <v>4.6268599999999998</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="37">
         <v>51.004399999999997</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="37">
         <v>4.5500499999999997</v>
       </c>
       <c r="D7" t="s">
         <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="37">
         <v>50.931600000000003</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="37">
         <v>4.71286</v>
       </c>
       <c r="D8" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="33" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="37">
         <v>50.9741</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="37">
         <v>4.7514900000000004</v>
       </c>
       <c r="D9" t="s">
         <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="37">
         <v>50.991100000000003</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="37">
         <v>4.6031899999999997</v>
       </c>
       <c r="D10" t="s">
         <v>54</v>
       </c>
+      <c r="E10" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3045,325 +3075,325 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="35">
         <v>43234</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="39">
         <v>0.91180555555555554</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="37">
         <v>51.00264</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="37">
         <v>4.54399</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="35">
         <v>43235</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="39">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="37">
         <v>51.00264</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="37">
         <v>4.54399</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="35">
         <v>43183</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="39">
         <v>8.0555555555555561E-2</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="37">
         <v>50.99192</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="37">
         <v>4.6033499999999998</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="35">
         <v>43188</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="39">
         <v>0.83611111111111114</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="37">
         <v>50.99192</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="37">
         <v>4.6033499999999998</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="35">
         <v>43191</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="39">
         <v>0.18888888888888888</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="37">
         <v>50.99192</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="37">
         <v>4.6033499999999998</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="35">
         <v>43216</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="39">
         <v>0.86944444444444446</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="37">
         <v>50.990900000000003</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="37">
         <v>4.6032999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="35">
         <v>43178</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="39">
         <v>0.9819444444444444</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="37">
         <v>50.99192</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="37">
         <v>4.6033499999999998</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="35">
         <v>43189</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="39">
         <v>0.875</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="37">
         <v>50.99192</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="37">
         <v>4.6033499999999998</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="35">
         <v>43189</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="39">
         <v>0.90763888888888899</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="37">
         <v>50.99192</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="37">
         <v>4.6033499999999998</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="35">
         <v>43221</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="39">
         <v>0.82638888888888884</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="37">
         <v>50.990900000000003</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="37">
         <v>4.6032999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="35">
         <v>43243</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="39">
         <v>0.8881944444444444</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <v>50.991819999999997</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="37">
         <v>4.6011699999999998</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="35">
         <v>43176</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="39">
         <v>0.87569444444444444</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="37">
         <v>50.99192</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="37">
         <v>4.6033499999999998</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="35">
         <v>43187</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="39">
         <v>0.15138888888888888</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="37">
         <v>50.99192</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="37">
         <v>4.6033499999999998</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="35">
         <v>43176</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="39">
         <v>0.13055555555555556</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="37">
         <v>50.99192</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="37">
         <v>4.6033499999999998</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="35">
         <v>43189</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="39">
         <v>0.21111111111111111</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="37">
         <v>50.99192</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="37">
         <v>4.6033499999999998</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="35">
         <v>43190</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C17" s="39">
         <v>0.89027777777777783</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="37">
         <v>50.99192</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="37">
         <v>4.6033499999999998</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="35">
         <v>43221</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="39">
         <v>4.8611111111111112E-3</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="37">
         <v>50.990900000000003</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="37">
         <v>4.6032999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="35">
         <v>43181</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="39">
         <v>0.11527777777777777</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="37">
         <v>50.990900000000003</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="37">
         <v>4.6032999999999999</v>
       </c>
     </row>
